--- a/ResultadoEleicoesDistritos/VISEU_SANTA COMBA DÃO.xlsx
+++ b/ResultadoEleicoesDistritos/VISEU_SANTA COMBA DÃO.xlsx
@@ -597,64 +597,64 @@
         <v>3045</v>
       </c>
       <c r="H2" t="n">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="I2" t="n">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="J2" t="n">
-        <v>1220</v>
+        <v>1245</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L2" t="n">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="M2" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N2" t="n">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="S2" t="n">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="T2" t="n">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="U2" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="V2" t="n">
         <v>1993</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X2" t="n">
-        <v>1973</v>
+        <v>1900</v>
       </c>
       <c r="Y2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Z2" t="n">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="AA2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
